--- a/va_facility_data_2025-02-20/Paterson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Paterson%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Paterson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Paterson%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Radab75d2970f4c9f8c6ca537b67a003d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1d5372f5acbc465a83d480cf9587f6c5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3803b06e5f384d4497eaa9a4dc85ee1f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R10fe2dd0f3ca4cc5bad5d9436ce17f9a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5d14cd55cbc946b0892095203d653282"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R30a24fc4278b46438c5a5a0e5b9f6e68"/>
   </x:sheets>
 </x:workbook>
 </file>
